--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201423.268637707</v>
+        <v>2199027.612632526</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.7891134897426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>42.76734719401195</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.411201099106258</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>219.456984517666</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>62.39747685266992</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>374.1062682903309</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>81.8316756435003</v>
+        <v>58.214230061391</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.4409126298447</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>61.45889219380947</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>81.19950077738028</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>100.5827519824195</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712602</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458133</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977175</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.3555494301517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>135.3120514073134</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>105.1162657551305</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
-        <v>80.33989744908955</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.214085525555</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.251568585143</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>860.9858699783929</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801487</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054111</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>2364.953257565488</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1974.813925589677</v>
+        <v>882.1042769845554</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433275</v>
+        <v>669.9499323155136</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928761</v>
+        <v>933.8894638110014</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362092</v>
+        <v>1574.912673430895</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687.0875436523315</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="C4" t="n">
-        <v>518.1513607244246</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="D4" t="n">
-        <v>368.0347213120889</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="E4" t="n">
         <v>220.1216277296958</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>764.2232859725433</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361118</v>
+        <v>509.5387977666564</v>
       </c>
       <c r="W4" t="n">
-        <v>1089.528587626101</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="X4" t="n">
-        <v>1089.528587626101</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="Y4" t="n">
-        <v>868.7360084825713</v>
+        <v>220.1216277296958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>439.3493107718989</v>
+        <v>890.6280335193146</v>
       </c>
       <c r="C5" t="n">
-        <v>70.38679383148718</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="D5" t="n">
-        <v>70.38679383148718</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148718</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4571,19 +4571,19 @@
         <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2526.96501174435</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2526.96501174435</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2273.385783686597</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>1942.322896343026</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W5" t="n">
-        <v>1589.554241072912</v>
+        <v>2028.578751329699</v>
       </c>
       <c r="X5" t="n">
-        <v>1216.088482811832</v>
+        <v>1655.112993068619</v>
       </c>
       <c r="Y5" t="n">
-        <v>825.9491508360206</v>
+        <v>1277.227873583436</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4647,25 +4647,25 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>532.0623520740556</v>
       </c>
       <c r="L6" t="n">
-        <v>763.7295585398688</v>
+        <v>829.3743011903704</v>
       </c>
       <c r="M6" t="n">
-        <v>1130.035448032194</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1520.445009357936</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1855.373690073468</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.8064422330658</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C7" t="n">
-        <v>348.8064422330658</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
         <v>51.79985532281972</v>
@@ -4723,52 +4723,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1564.325411928121</v>
+        <v>1486.06005532364</v>
       </c>
       <c r="T7" t="n">
-        <v>1341.390837470102</v>
+        <v>1263.125480865622</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.2730604805</v>
+        <v>974.0077038760202</v>
       </c>
       <c r="V7" t="n">
-        <v>797.5885722746133</v>
+        <v>719.3232156701333</v>
       </c>
       <c r="W7" t="n">
-        <v>797.5885722746133</v>
+        <v>429.9060456331728</v>
       </c>
       <c r="X7" t="n">
-        <v>569.5990213765959</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.8064422330658</v>
+        <v>201.9164947351555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262875</v>
+        <v>887.2172524547991</v>
       </c>
       <c r="C8" t="n">
-        <v>386.9937762858758</v>
+        <v>518.2547355143874</v>
       </c>
       <c r="D8" t="n">
-        <v>70.38679383148718</v>
+        <v>518.2547355143874</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>132.4664829161432</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>125.5209821669397</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>113.8795444074757</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4802,13 +4802,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>1277.356584430611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.556133290409</v>
+        <v>887.2172524547991</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,16 +4884,16 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349152</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
         <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452983</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
         <v>1962.675316168515</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8526776630624</v>
+        <v>387.2787673803456</v>
       </c>
       <c r="C10" t="n">
-        <v>201.9164947351555</v>
+        <v>387.2787673803456</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>387.2787673803456</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>239.3656737979525</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>239.3656737979525</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>239.3656737979525</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1545.384930777697</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.70044257181</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.28327253485</v>
+        <v>836.0608974218931</v>
       </c>
       <c r="X10" t="n">
-        <v>773.2937216368322</v>
+        <v>608.0713465238757</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.501142493302</v>
+        <v>387.2787673803456</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,25 +5440,25 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487566</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6139,10 +6139,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,7 +6175,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
         <v>1896.309668945771</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6446,37 +6446,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>147.9929666331142</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7601900310701</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.56906457696215</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>232.4400048971988</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1321840381062</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>148.4266296017846</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-1.002840388388774e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944558</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667974</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.22910392194314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>31.93476969131447</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>181.4067325814605</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>875217.4876982012</v>
+        <v>875217.4876982009</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516057</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="I2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898952</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,34 +26424,34 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695027</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695035</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>6287.480531695002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695048</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695064</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593558.5664359417</v>
+        <v>-593558.5664359436</v>
       </c>
       <c r="C6" t="n">
-        <v>199943.0792749528</v>
+        <v>199943.0792749552</v>
       </c>
       <c r="D6" t="n">
-        <v>372707.4390648479</v>
+        <v>372707.4390648478</v>
       </c>
       <c r="E6" t="n">
-        <v>-23117.59332609859</v>
+        <v>-23152.33125153433</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.274419652</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="G6" t="n">
-        <v>477771.2744196522</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="H6" t="n">
-        <v>477771.2744196519</v>
+        <v>477736.5364942164</v>
       </c>
       <c r="I6" t="n">
-        <v>477771.2744196525</v>
+        <v>477736.5364942169</v>
       </c>
       <c r="J6" t="n">
-        <v>308357.2575936041</v>
+        <v>308322.5196681689</v>
       </c>
       <c r="K6" t="n">
-        <v>477771.2744196525</v>
+        <v>477736.5364942163</v>
       </c>
       <c r="L6" t="n">
-        <v>477771.2744196522</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="M6" t="n">
-        <v>346886.817515417</v>
+        <v>346852.0795899813</v>
       </c>
       <c r="N6" t="n">
-        <v>477771.2744196527</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="O6" t="n">
-        <v>477771.2744196524</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="P6" t="n">
-        <v>477771.2744196522</v>
+        <v>477736.5364942165</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.015790261611063e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522369</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.9419871887264</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>343.4705914620416</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>283.8340596387127</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>67.06601381892497</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>60.53793192178311</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.1316703657227</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>112.6534936905908</v>
+        <v>136.2709392727001</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2421289908383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>239.3273950546503</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>65.96155943406669</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>185.6438472372861</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8421709430404e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,25 +32078,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>353.3934907042769</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>447.0541449741273</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>460.4681428117061</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>256.7861875582337</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>420.986963890343</v>
       </c>
       <c r="L6" t="n">
-        <v>466.4472841555959</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35030,13 +35030,13 @@
         <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225504</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>448.7417297192743</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>518.4325785839324</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35422,13 +35422,13 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899086</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35662,7 +35662,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191302</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
